--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCFB1B5-18C7-4C2C-83B9-D3F7BA2326C8}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/marcelo_grilo_germinare_org_br/Documents/GEDAI/Suprimentos/projeto_chat_suprimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C6026C-9661-465F-B09C-933718EF177C}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C344CB9E-84D2-43F5-B719-B95949242065}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Qual é o preço pago pelo meu km?</t>
   </si>
@@ -231,6 +231,28 @@
   </si>
   <si>
     <t>A IA entendeu que ela deveria falar sobre o documento de reembolso da Seara, não a política</t>
+  </si>
+  <si>
+    <t>Documento: Manual Expense: Reembolso - JBS
+Para resolver a questão da atualização do valor da quilometragem, você deve seguir os seguintes passos:
+1. Verifique se o valor da quilometragem está correto no seu relatório de despesas. Caso não esteja, é necessário abrir um chamado para solicitar a atualização.
+2. Para abrir um chamado, siga o caminho: Service Desk &gt; JBS SA &gt; Suprimentos Corporativo América do Sul &gt; Cadastro/Alteração de dados Reembolso &gt; Alteração de dados.
+3. Após a resolução do chamado, envie um e-mail para andre.rogerio@jbs.com.br, para que o processo seja reenviado para pagamento.
+Se precisar de mais alguma informação ou ajuda, estou à disposição para auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Procedimento para Solicitação de Vistos Técnicos
+Para solicitar acesso ao portal SIRVA Connect e se cadastrar no perfil extensionista, você deve seguir os seguintes passos:
+1. Preencher o formulário de solicitação de perfil, que está disponível no Anexo A do documento.
+2. Enviar o formulário preenchido para o e-mail: jbs.initiations@sirva.com.
+Após o envio, em 24 horas, seu usuário será criado. Você receberá um e-mail contendo instruções sobre como redefinir sua senha para o primeiro acesso. Caso não encontre o e-mail na sua caixa de entrada, verifique também a pasta de Spam.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Baseado em qual base?</t>
+  </si>
+  <si>
+    <t>Você poderia fornecer mais detalhes sobre qual sistema ou plataforma você está tentando se cadastrar no perfil administrativo? Assim, poderei te ajudar melhor.</t>
   </si>
 </sst>
 </file>
@@ -562,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,20 +677,26 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -677,6 +705,12 @@
       </c>
       <c r="C10" t="s">
         <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/marcelo_grilo_germinare_org_br/Documents/GEDAI/Suprimentos/projeto_chat_suprimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C344CB9E-84D2-43F5-B719-B95949242065}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B482E3CA-21E4-4183-A1E3-294C6D5B4B83}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Qual é o preço pago pelo meu km?</t>
   </si>
@@ -253,6 +253,101 @@
   </si>
   <si>
     <t>Você poderia fornecer mais detalhes sobre qual sistema ou plataforma você está tentando se cadastrar no perfil administrativo? Assim, poderei te ajudar melhor.</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Você poderia esclarecer um pouco mais sobre a sua dúvida? Está se referindo aos limites de valores para lançamento de notas fiscais em algum sistema específico ou em relação a algum procedimento interno da JBS? Isso nos ajudará a fornecer uma resposta mais precisa.</t>
+  </si>
+  <si>
+    <t>em qual doc se encontra essa info?</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Se o seu trajeto ficou incompleto, você pode retornar o relatório para a situação de "Rascunho" antes da aprovação acontecer. Para isso, siga os passos abaixo:
+1. Selecione o botão “Alterar relatório”, que está localizado logo abaixo do cabeçalho do seu relatório.
+2. Com o relatório no status “Rascunho”, insira o serviço necessário clicando em “Novo” e adicione as novas informações.
+3. Caso precise cancelar o serviço antigo, clique na “Lixeira” ao lado do serviço e, em seguida, clique em “Cancelar Relatório”.
+Se precisar de mais alguma ajuda ou tiver outras dúvidas, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Instrução Normativa de Viagens
+A utilização do km manual é permitida para despesas com utilização de veículo próprio, que serão reembolsadas ao valor de R$ 0,93 por quilômetro rodado. Este valor inclui despesas com combustível e manutenção do veículo.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Poderia especificar a quais valores você está se referindo? Assim, poderei te ajudar melhor.</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Para redefinir sua senha no Paytrack, siga as instruções abaixo:
+1. Acesse a página de login do Paytrack através do link: https://login.paytrack.com.br/.
+2. Na página inicial, clique na opção "Esqueci minha senha" ou similar.
+3. Siga as instruções fornecidas para redefinir sua senha. Normalmente, você precisará fornecer seu e-mail de usuário para receber um link de redefinição de senha.
+4. Verifique seu e-mail e siga o link para criar uma nova senha.
+Caso tenha dificuldades ou não receba o e-mail de redefinição, entre em contato com o suporte da Paytrack através do e-mail: atendimento@paytrack.com.br ou com o Suporte JBS pelo e-mail: suporte.travel@jbs.com.br.
+Se precisar de mais alguma informação, estou à disposição para ajudar!</t>
+  </si>
+  <si>
+    <t>Você poderia fornecer mais detalhes sobre o atraso no pagamento? Por exemplo, a que pagamento você está se referindo e se há algum número de pedido ou fatura relacionado? Isso nos ajudará a entender melhor a situação e a oferecer a assistência necessária.</t>
+  </si>
+  <si>
+    <t>Poderia fornecer mais detalhes sobre o problema com o workflow de aprovação? Assim, poderei ajudar de forma mais precisa.</t>
+  </si>
+  <si>
+    <t>Poderia fornecer mais detalhes sobre qual relatório de ciclo você está se referindo? Assim, poderei ajudar de forma mais precisa.</t>
+  </si>
+  <si>
+    <t>Documento: Manual Expense: Reembolso - JBS
+Se você esqueceu de lançar despesas, é possível corrigir isso no sistema Paytrack. Siga os passos abaixo para incluir as despesas que não foram lançadas:
+1. Acesse o Paytrack: Entre na plataforma Paytrack, seja pelo aplicativo ou pela web.
+2. Despesas a Classificar: Caso as despesas já tenham sido fotografadas e estejam armazenadas no Paytrack, acesse o item "Despesas a Classificar".
+3. Incluir em um Relatório:
+- Pelo APP: Clique em "Despesas a Classificar", selecione as despesas que deseja classificar, clique em "Selecionar Relatório", escolha o relatório que deseja classificar as despesas e clique em "Confirmar".
+- Pela WEB: Utilize o item “Despesas a Classificar” para vincular as despesas de forma automática a um relatório já criado ou criar um novo relatório a partir desse item.
+4. Criar Novo Relatório: Se não houver um relatório criado, você pode criar um novo relatório, preencher os itens solicitados e clicar em “Confirmar”.
+5. Finalizar Relatório: Após inserir as despesas e conferir todas as informações, finalize o relatório para que ele siga o fluxo de aprovação.
+Se precisar de mais assistência, estou à disposição para ajudar!</t>
+  </si>
+  <si>
+    <t>Poderia fornecer mais detalhes sobre o contexto em que essas políticas são aplicadas? Assim, poderei ajudar de forma mais precisa.</t>
+  </si>
+  <si>
+    <t>Documento: Instrução Normativa de Viagens
+O custo do valor do quilômetro rodado para despesas com utilização de veículo próprio é reembolsado ao valor de R$ 0,93 por quilômetro. Este valor inclui despesas com combustível e manutenção do veículo.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO PARA LOCAÇÃO DE VEÍCULOS
+O documento não menciona a necessidade de treinamento específico para motoristas que utilizam veículos locados pela JBS. No entanto, é importante que o colaborador siga rigorosamente a legislação brasileira de trânsito vigente ao dirigir a serviço da Companhia. Além disso, o colaborador deve zelar pela conservação do veículo e seguir as normas estabelecidas no manual do fabricante, no manual da locadora de veículos e na política interna da empresa.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Para solicitar uma viagem no Paytrack, siga os passos abaixo:
+1. Acessar a Plataforma:
+- Entre no Paytrack através do link: https://login.paytrack.com.br/ utilizando suas informações de usuário.
+2. Iniciar um Novo Relatório:
+- Na página inicial, clique no fluxo “Nova Viagem” para começar um novo relatório.
+3. Descrição e Motivo:
+- Inclua uma “Descrição” para a solicitação, que servirá como título.
+- Identifique um “Motivo” para a solicitação, escolhendo entre as sugestões já parametrizadas no sistema.
+4. Adicionar Serviços:
+- Cada viagem pode incluir um ou mais serviços. Você pode adicionar passagens aéreas, hospedagem, locação de veículos, entre outros.
+5. Passagem Aérea Online:
+- Clique na aba “Aéreo”, preencha os campos necessários e clique em “Pesquisar” para encontrar voos disponíveis.
+6. Hospedagem Online:
+- Clique na aba “Hospedagem”, indique a cidade de destino e as datas de estadia, e clique em “Pesquisar”.
+7. Serviços Offline:
+- Para serviços que não podem ser encontrados online, como locação de veículos ou passagens rodoviárias, selecione a aba correspondente e clique em “Solicite” a sua agência.
+8. Concluir e Solicitar:
+- Após inserir todos os serviços desejados, clique em “Concluir” e em seguida “Solicitar” para gerar o número do relatório.
+9. Verificação de Rateio:
+- Na aba Rateio, confirme se o Centro de Custo está correto. Caso necessário, altere o centro de custo clicando em “+ Rateio”.
+10. Acompanhar Andamento:
+- Acompanhe o andamento do seu relatório através de “Meus Pedidos e Relatórios” na tela inicial.
+Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
   </si>
 </sst>
 </file>
@@ -584,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,29 +815,44 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -752,88 +862,119 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -841,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -849,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -857,7 +998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -865,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -873,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -881,7 +1022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>40</v>
       </c>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/marcelo_grilo_germinare_org_br/Documents/GEDAI/Suprimentos/projeto_chat_suprimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B482E3CA-21E4-4183-A1E3-294C6D5B4B83}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEEBCA60-002B-46A2-BEB1-5F792166CD3A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Qual é o preço pago pelo meu km?</t>
   </si>
@@ -198,36 +198,6 @@
   </si>
   <si>
     <t>A IA respondeu a pergunta de acordo com outra base, isso porque as bases do paytrack não abordam coisas relacionadas a contas bancárias</t>
-  </si>
-  <si>
-    <t>Documento: Manual Expense: Reembolso - SEARA
-A política de reembolso da Seara abrange os seguintes pontos:
-1. Tipos de Reembolso:
-- Reembolso Viagens: Relacionado a despesas de viagens como aéreo, hospedagem, refeição, quilometragem, etc.
-- Reembolso Diversos: Relacionado a despesas diversas, como coffee break, prêmios e brindes, quilometragem comercial, quilometragem administrativa, etc.
-2. Prazo para Prestação de Contas:
-- A prestação de contas no sistema Paytrack deve ocorrer em até 5 dias após a data final do roteiro.
-3. Pagamento:
-- Após a integração do relatório no SRP, o pagamento deve ocorrer em 48 horas, respeitando o horário do expediente bancário.
-4. Regras para Solicitar um Reembolso:
-- Prazo de Antecedência na Solicitação:
-- Nacional: 4 dias úteis
-- Internacional: 7 dias úteis
-- Quantidade de Adiantamentos Pendentes: 1 adiantamento que não teve a prestação de contas concluída.
-5. Validações das Despesas:
-- Refeição:
-- São Paulo, Rio de Janeiro e Brasília: Até R$60,00 por despesa.
-- Demais Cidades do Brasil: Até R$50,00 por despesa.
-- Internacional: Até US$45,00 por despesa.
-- Quilometragem: R$ 0,93 por KM.
-- Hotel:
-- Brasil: Até R$275,00 por pernoite.
-- Internacional: Até US$250,00 por pernoite.
-6. Política de Utilização:
-- Alerta de Palavras no Cupom Fiscal: O sistema identifica palavras como cigarro, cerveja, vinho, etc., e alerta o aprovador. O usuário deve retirar o valor destes itens do reembolso e justificar a despesa.
-- Alerta de Reembolso Fora do Período do Roteiro: O sistema alerta quando o reembolso foi realizado fora do período informado no roteiro.
-- Alerta de Duplicidade de Cupom Fiscal: O sistema alerta quando o cupom fiscal já foi utilizado em outro relatório ou despesa.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
   </si>
   <si>
     <t>A IA entendeu que ela deveria falar sobre o documento de reembolso da Seara, não a política</t>
@@ -249,19 +219,10 @@
 Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
   </si>
   <si>
-    <t>Baseado em qual base?</t>
-  </si>
-  <si>
     <t>Você poderia fornecer mais detalhes sobre qual sistema ou plataforma você está tentando se cadastrar no perfil administrativo? Assim, poderei te ajudar melhor.</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>Você poderia esclarecer um pouco mais sobre a sua dúvida? Está se referindo aos limites de valores para lançamento de notas fiscais em algum sistema específico ou em relação a algum procedimento interno da JBS? Isso nos ajudará a fornecer uma resposta mais precisa.</t>
-  </si>
-  <si>
-    <t>em qual doc se encontra essa info?</t>
   </si>
   <si>
     <t>Documento: Manual de Adiantamento JBS 2024
@@ -348,6 +309,107 @@
 10. Acompanhar Andamento:
 - Acompanhe o andamento do seu relatório através de “Meus Pedidos e Relatórios” na tela inicial.
 Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
+  </si>
+  <si>
+    <t>Documento: Procedimento para Locação de Veículos
+Não, não é permitido trabalhar na JBS com veículo sem seguro. O seguro não será válido nos casos de uso indevido do veículo, sempre que o usuário proceder com dolo ou culpa (negligência, imperícia ou imprudência), nos casos em que ocorrer furto, roubo ou incêndio ou quando a documentação exigida pela locadora não seja apresentada no prazo estipulado.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Para saber quando você receberá sua despesa, é importante acompanhar o status do seu relatório no Paytrack. O status do relatório indicará em que etapa do processo ele se encontra e qual ação é necessária para que ele avance. Aqui estão os possíveis status:
+- Rascunho: Relatório criado, mas ainda não concluído. O colaborador deve finalizar o relatório para seguir o fluxo correto.
+- Cotação: Quando o colaborador solicita um serviço de forma offline, a agência deve realizar a cotação desejada.
+- Seleção: O colaborador deve selecionar o serviço cotado junto à agência e clicar em "Concluir Seleção".
+- Aprovação: O relatório está com o gestor responsável para a aprovação dos custos.
+- Emissão: O relatório está com a agência para que os serviços sejam emitidos.
+- Finalizada: O relatório foi aprovado pelo gestor e o serviço solicitado foi emitido. Nesse status, o colaborador pode visualizar o voucher contendo as informações da viagem.
+Acompanhe o andamento do seu relatório através da seção "Meus Pedidos e Relatórios" na tela inicial do Paytrack. Isso ajudará a entender em qual etapa o seu pedido está e quando ele será processado.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Sim, existe um prazo para lançamento das despesas. As despesas devem ser lançadas no sistema em até 5 dias úteis após a realização da viagem ou evento. É importante respeitar esse prazo para garantir o correto processamento e reembolso das despesas.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Locação de Veículos
+Sim, o tipo de veículo autorizado para locação é o popular 1.0 com ar-condicionado. Caso a categoria reservada e confirmada pela locadora não esteja disponível no momento da retirada, a obrigação do fornecedor é oferecer um veículo da mesma categoria ou superior com os mesmos itens de segurança padrão e sem cobrança de taxa adicional.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>PROCEDIMENTO PARA LOCAÇÃO DE VEÍCULOS
+Em caso de acidente com um veículo locado, o condutor deve seguir os seguintes procedimentos:
+- Apresentar à locadora de veículos, com cópia para a área de Viagens da Diretoria de Suprimentos Corporativa (viagens@jbs.com.br), os seguintes documentos: relatório de sinistro, laudo pericial ou ocorrência policial imediata (boletim de ocorrência). Esse procedimento deve ser feito dentro do prazo informado no contrato de locação, assinado pelo condutor no momento da retirada do veículo.
+- Nos casos de sinistro com veículo locado, o usuário deve providenciar o boletim de ocorrência (ou o número de protocolo) no prazo de até 48 horas. Em seguida, deve informar formalmente à locadora que tomará as providências necessárias relacionadas ao seguro.
+- Estão dispensados de apresentação de laudo pericial ou ocorrência policial imediata (boletim de ocorrência) casos de pequeno impacto sem vítimas, tais como perda ou quebra de calota, pedras que danificam a carroceria ou vidros. No caso de dúvidas, solicitar informação formal à locadora de veículos.
+- O seguro não será válido nos casos de uso indevido do veículo, sempre que o usuário proceder com dolo ou culpa (negligência, imperícia ou imprudência), nos casos em que ocorrer furto, roubo ou incêndio, ou quando a documentação exigida pela locadora não seja apresentada no prazo estipulado.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Em caso de desligamento da empresa ou férias, o colaborador deve seguir o procedimento padrão para solicitação de reembolso de despesas. É importante que todas as despesas sejam registradas e submetidas para aprovação antes do desligamento ou início das férias. O colaborador deve garantir que todos os relatórios de despesas estejam completos e aprovados para que o reembolso seja processado corretamente.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual Expense: Reembolso - JBS
+Para anexar evidências de gasto, você deve inserir os comprovantes das despesas que foram pagas com recursos próprios e estão sendo solicitadas para reembolso. No sistema Paytrack, ao cadastrar uma nova despesa, você deve selecionar a foto do comprovante fiscal que já deve estar armazenada no seu computador ou dispositivo móvel. As informações referentes ao comprovante, como "Tipo de Despesa", "Valor", "Data", "Pagamento" e "Justificativa da Despesa", devem ser preenchidas. Além disso, é possível inserir anexos adicionais caso seja necessário.
+Se precisar de mais alguma informação, estou à disposição para ajudar!</t>
+  </si>
+  <si>
+    <t>Procedimento para Locação de Veículos
+De acordo com o documento sobre locação de veículos, não há menção específica sobre a prestação de assistência técnica para motos. O documento trata exclusivamente de locação de veículos, mais especificamente carros, e não aborda questões relacionadas a motos.
+Se tiver mais alguma dúvida ou precisar de mais informações, estarei aqui para ajudar!</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Para realizar a marcação de km com o celular offline, é necessário seguir o procedimento de marcação de km no aplicativo Paytrack. No entanto, o documento não especifica se essa funcionalidade está disponível offline. Recomendo verificar diretamente no aplicativo ou entrar em contato com o suporte da Paytrack para obter informações mais detalhadas sobre essa funcionalidade.
+Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Para utilizar o aplicativo Paytrack de forma eficiente, siga as recomendações gerais de uso:
+- Acesse a plataforma através do link: https://login.paytrack.com.br/ utilizando as informações de usuário recebidas por e-mail.
+- No primeiro acesso, verifique seu perfil clicando nas suas iniciais no canto superior direito da tela inicial. Certifique-se de que todos os seus dados estão corretos e atualizados.
+- Utilize a barra lateral esquerda para acessar a tela inicial, pedidos e relatórios, e a aba de seleção, caso necessário.
+- Use o botão "Novo Serviço de Viagem" para iniciar uma nova solicitação de viagem.
+- A barra de acesso rápido permite acessar "Pedidos e Relatórios", "Despesas a Classificar" e "Seleção de Serviço".
+- Utilize a central de ajuda Paytrack, acessível pelo símbolo de interrogação, para obter orientações adicionais sobre o uso da ferramenta.
+- Acompanhe o status dos seus relatórios através do painel "Meus Pedidos e Relatórios" na tela inicial.
+- Para qualquer dúvida ou necessidade de suporte, utilize o chat de suporte disponível no canto inferior direito da tela, ou entre em contato com o suporte JBS através do e-mail suporte.travel@jbs.com.br.
+Se precisar de mais informações ou tiver outras dúvidas, estou à disposição para ajudar!</t>
+  </si>
+  <si>
+    <t>Procedimento: Solicitações e Despesas de Viagem
+Se você estava em deslocamento e seu celular acabou a bateria, é importante garantir que você tenha acesso a um carregador ou uma fonte de energia para recarregar seu dispositivo. Caso precise de assistência imediata relacionada à sua viagem, como alterações de itinerário ou outras situações emergenciais, você pode utilizar o canal de atendimento emergencial das agências de viagem parceiras da JBS:
+- JBS S/A: Specta Viagens
+- Emergencial - atendimento das 19 às 8 horas:
+- +55 (62) 99118-2682 – Nacional
+- +55 (62) 98117-9900 – Internacional
+- Seara e Swift: TripService Consultoria em Viagens e Eventos
+- Emergencial – atendimento 24 horas:
+- +55 (47) 9979-4075
+- atendimentoemergencial@tripservice.com.br
+Esses canais são destinados a tratar de assuntos emergenciais relacionados à viagem, como alterações de itinerário ou extravio de bagagens.
+Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
+  </si>
+  <si>
+    <t>Documento: Manual de Adiantamento JBS 2024
+Se você esqueceu de marcar seu percurso, é importante seguir os procedimentos adequados para corrigir essa situação. Infelizmente, o documento fornecido não contém informações específicas sobre como proceder nesse caso. Recomendo que você entre em contato com o suporte da Paytrack ou com o Suporte de Viagens da JBS para obter orientação sobre como resolver essa questão.
+Contatos importantes:
+- Chat de Suporte e Ajuda: Disponível de segunda a sexta-feira das 08h às 18h.
+- E-mail Paytrack: atendimento@paytrack.com.br
+- Suporte JBS: E-mail: suporte.travel@jbs.com.br - Contato: Raquel - (11) 3144-5071.
+Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
+  </si>
+  <si>
+    <t>Poderia fornecer mais detalhes sobre o tipo de seguro ou a situação específica relacionada ao extensionista? Assim, poderei ajudar de forma mais precisa.</t>
+  </si>
+  <si>
+    <t>A política de reembolso da Seara é a IN-SEARA-ADM-0153. Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
   </si>
 </sst>
 </file>
@@ -679,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -766,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
@@ -780,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
@@ -791,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -802,10 +864,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -816,7 +878,10 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -827,10 +892,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
@@ -841,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -852,7 +917,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -863,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="187.2" x14ac:dyDescent="0.3">
@@ -874,10 +939,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -885,10 +950,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -896,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -907,10 +972,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="244.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -918,10 +983,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -929,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="72" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="72" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -940,19 +1005,21 @@
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -960,10 +1027,10 @@
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -971,95 +1038,137 @@
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="216" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutogerminare-my.sharepoint.com/personal/marcelo_grilo_germinare_org_br/Documents/GEDAI/Suprimentos/projeto_chat_suprimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEEBCA60-002B-46A2-BEB1-5F792166CD3A}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_8132A9885AAE293F0AC48A603C004FED3AA3F591" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417DB0FF-8F5B-4D8B-B58B-347A431A37B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="15540" yWindow="696" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>Qual é o preço pago pelo meu km?</t>
   </si>
@@ -197,219 +197,19 @@
 Para alterar a conta bancária de um fornecedor, é necessário que o próprio fornecedor envie uma solicitação formal de alteração de dados bancários. Essa solicitação deve ser acompanhada de documentos que comprovem a titularidade da nova conta bancária. A área responsável pela gestão de fornecedores na JBS irá processar a solicitação e realizar a atualização no sistema. É importante garantir que todos os documentos estejam corretos e atualizados para evitar atrasos no processo.</t>
   </si>
   <si>
-    <t>A IA respondeu a pergunta de acordo com outra base, isso porque as bases do paytrack não abordam coisas relacionadas a contas bancárias</t>
-  </si>
-  <si>
-    <t>A IA entendeu que ela deveria falar sobre o documento de reembolso da Seara, não a política</t>
-  </si>
-  <si>
-    <t>Documento: Manual Expense: Reembolso - JBS
-Para resolver a questão da atualização do valor da quilometragem, você deve seguir os seguintes passos:
-1. Verifique se o valor da quilometragem está correto no seu relatório de despesas. Caso não esteja, é necessário abrir um chamado para solicitar a atualização.
-2. Para abrir um chamado, siga o caminho: Service Desk &gt; JBS SA &gt; Suprimentos Corporativo América do Sul &gt; Cadastro/Alteração de dados Reembolso &gt; Alteração de dados.
-3. Após a resolução do chamado, envie um e-mail para andre.rogerio@jbs.com.br, para que o processo seja reenviado para pagamento.
-Se precisar de mais alguma informação ou ajuda, estou à disposição para auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Procedimento para Solicitação de Vistos Técnicos
-Para solicitar acesso ao portal SIRVA Connect e se cadastrar no perfil extensionista, você deve seguir os seguintes passos:
-1. Preencher o formulário de solicitação de perfil, que está disponível no Anexo A do documento.
-2. Enviar o formulário preenchido para o e-mail: jbs.initiations@sirva.com.
-Após o envio, em 24 horas, seu usuário será criado. Você receberá um e-mail contendo instruções sobre como redefinir sua senha para o primeiro acesso. Caso não encontre o e-mail na sua caixa de entrada, verifique também a pasta de Spam.
+    <t>*PROCEDIMENTO PARA LOCAÇÃO DE VEÍCULOS*
+Sim, há um padrão de veículo autorizado para locação na JBS. O tipo de veículo autorizado é o popular 1.0 com ar-condicionado. Caso a categoria reservada e confirmada pela locadora não esteja disponível no momento da retirada, a obrigação do fornecedor é oferecer um veículo da mesma categoria ou superior com os mesmos itens de segurança padrão e sem cobrança de taxa adicional.
 Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
   </si>
   <si>
-    <t>Você poderia fornecer mais detalhes sobre qual sistema ou plataforma você está tentando se cadastrar no perfil administrativo? Assim, poderei te ajudar melhor.</t>
-  </si>
-  <si>
-    <t>Você poderia esclarecer um pouco mais sobre a sua dúvida? Está se referindo aos limites de valores para lançamento de notas fiscais em algum sistema específico ou em relação a algum procedimento interno da JBS? Isso nos ajudará a fornecer uma resposta mais precisa.</t>
-  </si>
-  <si>
     <t>Documento: Manual de Adiantamento JBS 2024
-Se o seu trajeto ficou incompleto, você pode retornar o relatório para a situação de "Rascunho" antes da aprovação acontecer. Para isso, siga os passos abaixo:
-1. Selecione o botão “Alterar relatório”, que está localizado logo abaixo do cabeçalho do seu relatório.
-2. Com o relatório no status “Rascunho”, insira o serviço necessário clicando em “Novo” e adicione as novas informações.
-3. Caso precise cancelar o serviço antigo, clique na “Lixeira” ao lado do serviço e, em seguida, clique em “Cancelar Relatório”.
-Se precisar de mais alguma ajuda ou tiver outras dúvidas, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Instrução Normativa de Viagens
-A utilização do km manual é permitida para despesas com utilização de veículo próprio, que serão reembolsadas ao valor de R$ 0,93 por quilômetro rodado. Este valor inclui despesas com combustível e manutenção do veículo.
+Na prestação de contas, você deve inserir os comprovantes das despesas que foram pagas com recursos do adiantamento realizado. Para isso, siga os passos:
+1. Clique no ícone "Despesas" e em seguida clique no botão “+ Despesas” para cadastrar uma nova despesa.
+2. Clique em "Selecione" para escolher nos seus arquivos a foto do comprovante fiscal, que já deve estar armazenada no seu computador.
+3. Preencha as informações referentes ao comprovante, como “Tipo de Despesa”, “Valor”, “Data”, “Pagamento” e “Justificativa da Despesa”.
+4. Ao finalizar, clique em "Confirmar".
+Além disso, é possível inserir “Anexo” caso seja necessário, para documentos maiores ou complementação da comprovação da despesa inserida.
 Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Poderia especificar a quais valores você está se referindo? Assim, poderei te ajudar melhor.</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Para redefinir sua senha no Paytrack, siga as instruções abaixo:
-1. Acesse a página de login do Paytrack através do link: https://login.paytrack.com.br/.
-2. Na página inicial, clique na opção "Esqueci minha senha" ou similar.
-3. Siga as instruções fornecidas para redefinir sua senha. Normalmente, você precisará fornecer seu e-mail de usuário para receber um link de redefinição de senha.
-4. Verifique seu e-mail e siga o link para criar uma nova senha.
-Caso tenha dificuldades ou não receba o e-mail de redefinição, entre em contato com o suporte da Paytrack através do e-mail: atendimento@paytrack.com.br ou com o Suporte JBS pelo e-mail: suporte.travel@jbs.com.br.
-Se precisar de mais alguma informação, estou à disposição para ajudar!</t>
-  </si>
-  <si>
-    <t>Você poderia fornecer mais detalhes sobre o atraso no pagamento? Por exemplo, a que pagamento você está se referindo e se há algum número de pedido ou fatura relacionado? Isso nos ajudará a entender melhor a situação e a oferecer a assistência necessária.</t>
-  </si>
-  <si>
-    <t>Poderia fornecer mais detalhes sobre o problema com o workflow de aprovação? Assim, poderei ajudar de forma mais precisa.</t>
-  </si>
-  <si>
-    <t>Poderia fornecer mais detalhes sobre qual relatório de ciclo você está se referindo? Assim, poderei ajudar de forma mais precisa.</t>
-  </si>
-  <si>
-    <t>Documento: Manual Expense: Reembolso - JBS
-Se você esqueceu de lançar despesas, é possível corrigir isso no sistema Paytrack. Siga os passos abaixo para incluir as despesas que não foram lançadas:
-1. Acesse o Paytrack: Entre na plataforma Paytrack, seja pelo aplicativo ou pela web.
-2. Despesas a Classificar: Caso as despesas já tenham sido fotografadas e estejam armazenadas no Paytrack, acesse o item "Despesas a Classificar".
-3. Incluir em um Relatório:
-- Pelo APP: Clique em "Despesas a Classificar", selecione as despesas que deseja classificar, clique em "Selecionar Relatório", escolha o relatório que deseja classificar as despesas e clique em "Confirmar".
-- Pela WEB: Utilize o item “Despesas a Classificar” para vincular as despesas de forma automática a um relatório já criado ou criar um novo relatório a partir desse item.
-4. Criar Novo Relatório: Se não houver um relatório criado, você pode criar um novo relatório, preencher os itens solicitados e clicar em “Confirmar”.
-5. Finalizar Relatório: Após inserir as despesas e conferir todas as informações, finalize o relatório para que ele siga o fluxo de aprovação.
-Se precisar de mais assistência, estou à disposição para ajudar!</t>
-  </si>
-  <si>
-    <t>Poderia fornecer mais detalhes sobre o contexto em que essas políticas são aplicadas? Assim, poderei ajudar de forma mais precisa.</t>
-  </si>
-  <si>
-    <t>Documento: Instrução Normativa de Viagens
-O custo do valor do quilômetro rodado para despesas com utilização de veículo próprio é reembolsado ao valor de R$ 0,93 por quilômetro. Este valor inclui despesas com combustível e manutenção do veículo.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>PROCEDIMENTO PARA LOCAÇÃO DE VEÍCULOS
-O documento não menciona a necessidade de treinamento específico para motoristas que utilizam veículos locados pela JBS. No entanto, é importante que o colaborador siga rigorosamente a legislação brasileira de trânsito vigente ao dirigir a serviço da Companhia. Além disso, o colaborador deve zelar pela conservação do veículo e seguir as normas estabelecidas no manual do fabricante, no manual da locadora de veículos e na política interna da empresa.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Para solicitar uma viagem no Paytrack, siga os passos abaixo:
-1. Acessar a Plataforma:
-- Entre no Paytrack através do link: https://login.paytrack.com.br/ utilizando suas informações de usuário.
-2. Iniciar um Novo Relatório:
-- Na página inicial, clique no fluxo “Nova Viagem” para começar um novo relatório.
-3. Descrição e Motivo:
-- Inclua uma “Descrição” para a solicitação, que servirá como título.
-- Identifique um “Motivo” para a solicitação, escolhendo entre as sugestões já parametrizadas no sistema.
-4. Adicionar Serviços:
-- Cada viagem pode incluir um ou mais serviços. Você pode adicionar passagens aéreas, hospedagem, locação de veículos, entre outros.
-5. Passagem Aérea Online:
-- Clique na aba “Aéreo”, preencha os campos necessários e clique em “Pesquisar” para encontrar voos disponíveis.
-6. Hospedagem Online:
-- Clique na aba “Hospedagem”, indique a cidade de destino e as datas de estadia, e clique em “Pesquisar”.
-7. Serviços Offline:
-- Para serviços que não podem ser encontrados online, como locação de veículos ou passagens rodoviárias, selecione a aba correspondente e clique em “Solicite” a sua agência.
-8. Concluir e Solicitar:
-- Após inserir todos os serviços desejados, clique em “Concluir” e em seguida “Solicitar” para gerar o número do relatório.
-9. Verificação de Rateio:
-- Na aba Rateio, confirme se o Centro de Custo está correto. Caso necessário, altere o centro de custo clicando em “+ Rateio”.
-10. Acompanhar Andamento:
-- Acompanhe o andamento do seu relatório através de “Meus Pedidos e Relatórios” na tela inicial.
-Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
-  </si>
-  <si>
-    <t>Documento: Procedimento para Locação de Veículos
-Não, não é permitido trabalhar na JBS com veículo sem seguro. O seguro não será válido nos casos de uso indevido do veículo, sempre que o usuário proceder com dolo ou culpa (negligência, imperícia ou imprudência), nos casos em que ocorrer furto, roubo ou incêndio ou quando a documentação exigida pela locadora não seja apresentada no prazo estipulado.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Para saber quando você receberá sua despesa, é importante acompanhar o status do seu relatório no Paytrack. O status do relatório indicará em que etapa do processo ele se encontra e qual ação é necessária para que ele avance. Aqui estão os possíveis status:
-- Rascunho: Relatório criado, mas ainda não concluído. O colaborador deve finalizar o relatório para seguir o fluxo correto.
-- Cotação: Quando o colaborador solicita um serviço de forma offline, a agência deve realizar a cotação desejada.
-- Seleção: O colaborador deve selecionar o serviço cotado junto à agência e clicar em "Concluir Seleção".
-- Aprovação: O relatório está com o gestor responsável para a aprovação dos custos.
-- Emissão: O relatório está com a agência para que os serviços sejam emitidos.
-- Finalizada: O relatório foi aprovado pelo gestor e o serviço solicitado foi emitido. Nesse status, o colaborador pode visualizar o voucher contendo as informações da viagem.
-Acompanhe o andamento do seu relatório através da seção "Meus Pedidos e Relatórios" na tela inicial do Paytrack. Isso ajudará a entender em qual etapa o seu pedido está e quando ele será processado.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Sim, existe um prazo para lançamento das despesas. As despesas devem ser lançadas no sistema em até 5 dias úteis após a realização da viagem ou evento. É importante respeitar esse prazo para garantir o correto processamento e reembolso das despesas.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Locação de Veículos
-Sim, o tipo de veículo autorizado para locação é o popular 1.0 com ar-condicionado. Caso a categoria reservada e confirmada pela locadora não esteja disponível no momento da retirada, a obrigação do fornecedor é oferecer um veículo da mesma categoria ou superior com os mesmos itens de segurança padrão e sem cobrança de taxa adicional.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>PROCEDIMENTO PARA LOCAÇÃO DE VEÍCULOS
-Em caso de acidente com um veículo locado, o condutor deve seguir os seguintes procedimentos:
-- Apresentar à locadora de veículos, com cópia para a área de Viagens da Diretoria de Suprimentos Corporativa (viagens@jbs.com.br), os seguintes documentos: relatório de sinistro, laudo pericial ou ocorrência policial imediata (boletim de ocorrência). Esse procedimento deve ser feito dentro do prazo informado no contrato de locação, assinado pelo condutor no momento da retirada do veículo.
-- Nos casos de sinistro com veículo locado, o usuário deve providenciar o boletim de ocorrência (ou o número de protocolo) no prazo de até 48 horas. Em seguida, deve informar formalmente à locadora que tomará as providências necessárias relacionadas ao seguro.
-- Estão dispensados de apresentação de laudo pericial ou ocorrência policial imediata (boletim de ocorrência) casos de pequeno impacto sem vítimas, tais como perda ou quebra de calota, pedras que danificam a carroceria ou vidros. No caso de dúvidas, solicitar informação formal à locadora de veículos.
-- O seguro não será válido nos casos de uso indevido do veículo, sempre que o usuário proceder com dolo ou culpa (negligência, imperícia ou imprudência), nos casos em que ocorrer furto, roubo ou incêndio, ou quando a documentação exigida pela locadora não seja apresentada no prazo estipulado.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Em caso de desligamento da empresa ou férias, o colaborador deve seguir o procedimento padrão para solicitação de reembolso de despesas. É importante que todas as despesas sejam registradas e submetidas para aprovação antes do desligamento ou início das férias. O colaborador deve garantir que todos os relatórios de despesas estejam completos e aprovados para que o reembolso seja processado corretamente.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual Expense: Reembolso - JBS
-Para anexar evidências de gasto, você deve inserir os comprovantes das despesas que foram pagas com recursos próprios e estão sendo solicitadas para reembolso. No sistema Paytrack, ao cadastrar uma nova despesa, você deve selecionar a foto do comprovante fiscal que já deve estar armazenada no seu computador ou dispositivo móvel. As informações referentes ao comprovante, como "Tipo de Despesa", "Valor", "Data", "Pagamento" e "Justificativa da Despesa", devem ser preenchidas. Além disso, é possível inserir anexos adicionais caso seja necessário.
-Se precisar de mais alguma informação, estou à disposição para ajudar!</t>
-  </si>
-  <si>
-    <t>Procedimento para Locação de Veículos
-De acordo com o documento sobre locação de veículos, não há menção específica sobre a prestação de assistência técnica para motos. O documento trata exclusivamente de locação de veículos, mais especificamente carros, e não aborda questões relacionadas a motos.
-Se tiver mais alguma dúvida ou precisar de mais informações, estarei aqui para ajudar!</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Para realizar a marcação de km com o celular offline, é necessário seguir o procedimento de marcação de km no aplicativo Paytrack. No entanto, o documento não especifica se essa funcionalidade está disponível offline. Recomendo verificar diretamente no aplicativo ou entrar em contato com o suporte da Paytrack para obter informações mais detalhadas sobre essa funcionalidade.
-Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Para utilizar o aplicativo Paytrack de forma eficiente, siga as recomendações gerais de uso:
-- Acesse a plataforma através do link: https://login.paytrack.com.br/ utilizando as informações de usuário recebidas por e-mail.
-- No primeiro acesso, verifique seu perfil clicando nas suas iniciais no canto superior direito da tela inicial. Certifique-se de que todos os seus dados estão corretos e atualizados.
-- Utilize a barra lateral esquerda para acessar a tela inicial, pedidos e relatórios, e a aba de seleção, caso necessário.
-- Use o botão "Novo Serviço de Viagem" para iniciar uma nova solicitação de viagem.
-- A barra de acesso rápido permite acessar "Pedidos e Relatórios", "Despesas a Classificar" e "Seleção de Serviço".
-- Utilize a central de ajuda Paytrack, acessível pelo símbolo de interrogação, para obter orientações adicionais sobre o uso da ferramenta.
-- Acompanhe o status dos seus relatórios através do painel "Meus Pedidos e Relatórios" na tela inicial.
-- Para qualquer dúvida ou necessidade de suporte, utilize o chat de suporte disponível no canto inferior direito da tela, ou entre em contato com o suporte JBS através do e-mail suporte.travel@jbs.com.br.
-Se precisar de mais informações ou tiver outras dúvidas, estou à disposição para ajudar!</t>
-  </si>
-  <si>
-    <t>Procedimento: Solicitações e Despesas de Viagem
-Se você estava em deslocamento e seu celular acabou a bateria, é importante garantir que você tenha acesso a um carregador ou uma fonte de energia para recarregar seu dispositivo. Caso precise de assistência imediata relacionada à sua viagem, como alterações de itinerário ou outras situações emergenciais, você pode utilizar o canal de atendimento emergencial das agências de viagem parceiras da JBS:
-- JBS S/A: Specta Viagens
-- Emergencial - atendimento das 19 às 8 horas:
-- +55 (62) 99118-2682 – Nacional
-- +55 (62) 98117-9900 – Internacional
-- Seara e Swift: TripService Consultoria em Viagens e Eventos
-- Emergencial – atendimento 24 horas:
-- +55 (47) 9979-4075
-- atendimentoemergencial@tripservice.com.br
-Esses canais são destinados a tratar de assuntos emergenciais relacionados à viagem, como alterações de itinerário ou extravio de bagagens.
-Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
-  </si>
-  <si>
-    <t>Documento: Manual de Adiantamento JBS 2024
-Se você esqueceu de marcar seu percurso, é importante seguir os procedimentos adequados para corrigir essa situação. Infelizmente, o documento fornecido não contém informações específicas sobre como proceder nesse caso. Recomendo que você entre em contato com o suporte da Paytrack ou com o Suporte de Viagens da JBS para obter orientação sobre como resolver essa questão.
-Contatos importantes:
-- Chat de Suporte e Ajuda: Disponível de segunda a sexta-feira das 08h às 18h.
-- E-mail Paytrack: atendimento@paytrack.com.br
-- Suporte JBS: E-mail: suporte.travel@jbs.com.br - Contato: Raquel - (11) 3144-5071.
-Se precisar de mais alguma informação ou ajuda, estou à disposição!</t>
-  </si>
-  <si>
-    <t>Poderia fornecer mais detalhes sobre o tipo de seguro ou a situação específica relacionada ao extensionista? Assim, poderei ajudar de forma mais precisa.</t>
-  </si>
-  <si>
-    <t>A política de reembolso da Seara é a IN-SEARA-ADM-0153. Se tiver mais alguma dúvida, estarei aqui para te auxiliar!</t>
   </si>
 </sst>
 </file>
@@ -741,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,9 +616,6 @@
       <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -827,33 +624,21 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -863,12 +648,6 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -877,47 +656,29 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
@@ -927,143 +688,104 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="244.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="409.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="216" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>36</v>
       </c>
@@ -1071,32 +793,26 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="244.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -1104,71 +820,47 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="201.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="259.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
